--- a/report/reliability/by-unidade/Centro de Tecnologia - CTEC.xlsx
+++ b/report/reliability/by-unidade/Centro de Tecnologia - CTEC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7741067149843265</v>
+        <v>0.7411932013815934</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.793571476194861</v>
+        <v>0.7695144627689199</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8930147672057676</v>
+        <v>0.8821534552651817</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.24262944848601256</v>
+        <v>0.20434145695384823</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.844291775026031</v>
+        <v>3.338667024462454</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.018662430339526425</v>
+        <v>0.020017703596216692</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.709331337325349</v>
+        <v>2.0541225241824046</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7272212658002424</v>
+        <v>0.6125433323317561</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.20247416770075388</v>
+        <v>0.14193807286889643</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7470612324942897</v>
+        <v>0.7433321152099046</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7614121534759792</v>
+        <v>0.7682619252628404</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8647036273504378</v>
+        <v>0.8828234820293135</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22487876079803754</v>
+        <v>0.21646554082017685</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.1913283286176144</v>
+        <v>3.3152166562797842</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.0208849845203636</v>
+        <v>0.020314806143595637</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03868956996042258</v>
+        <v>0.057019149942384544</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.16761585362587456</v>
+        <v>0.16323635754889493</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7484300549414371</v>
+        <v>0.7166506316963985</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7655238347917017</v>
+        <v>0.7412036273780127</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8700648990585784</v>
+        <v>0.8621793846227104</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.22887246220219137</v>
+        <v>0.19268257139330483</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.2648258048388166</v>
+        <v>2.864041794204965</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.020798980718382005</v>
+        <v>0.021805671873618444</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.0400638545176592</v>
+        <v>0.057652547105785594</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.16761585362587456</v>
+        <v>0.11428629492693892</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7527399610369411</v>
+        <v>0.7182570227767525</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.767190160461801</v>
+        <v>0.7432132777704056</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8702164613319746</v>
+        <v>0.8624036710437836</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.23051907405332137</v>
+        <v>0.19432170558442605</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.2953510984913583</v>
+        <v>2.894282349637589</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.02047753185629164</v>
+        <v>0.0216813463544273</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03971464897758767</v>
+        <v>0.05725021717289327</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.17051544448282444</v>
+        <v>0.1176620938556878</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7520282839384673</v>
+        <v>0.7266088094530025</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7691620334517322</v>
+        <v>0.7445627649494168</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8746195116973265</v>
+        <v>0.8605684116338327</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2324890463681152</v>
+        <v>0.1954330651516472</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.3320430124777647</v>
+        <v>2.9148560302963435</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.020490801917426357</v>
+        <v>0.021472180603099043</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.040533871960118505</v>
+        <v>0.0438129373946334</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2025651283093577</v>
+        <v>0.14193807286889643</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7532701315600095</v>
+        <v>0.7038569170713206</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7814852040107596</v>
+        <v>0.7423350539660948</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8537333568344393</v>
+        <v>0.8588281525661504</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.24535287335196768</v>
+        <v>0.1936030735331121</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.5763491459371894</v>
+        <v>2.8810090988023394</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.020446398837109487</v>
+        <v>0.022974103076314912</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.037394422333841194</v>
+        <v>0.04384084554948371</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2025651283093577</v>
+        <v>0.14193807286889643</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7551513564370654</v>
+        <v>0.7053696084375786</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7809089895314195</v>
+        <v>0.7417608562543597</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8534856943287593</v>
+        <v>0.8581123651396015</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.244729235206177</v>
+        <v>0.19313517417814327</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.564313240699614</v>
+        <v>2.872379630351385</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.020295049181872988</v>
+        <v>0.022877897197931287</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03760028013017073</v>
+        <v>0.04389148829821309</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2023832070921501</v>
+        <v>0.14193807286889643</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7692141980391441</v>
+        <v>0.7428791215920825</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7928417612533055</v>
+        <v>0.7771614790127874</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8840108599596821</v>
+        <v>0.8855027248450572</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2581216002827589</v>
+        <v>0.2251843229008158</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.8272277561828605</v>
+        <v>3.4875544657621576</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.019091338403205482</v>
+        <v>0.02030530414399237</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04363878596496622</v>
+        <v>0.05452962617040143</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2090656158297889</v>
+        <v>0.16323635754889493</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7801052767812889</v>
+        <v>0.730857008693005</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7962043672871791</v>
+        <v>0.7602853716438182</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8849859078590945</v>
+        <v>0.8705064275637631</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2620855211700275</v>
+        <v>0.20904988946713957</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.9068764952836474</v>
+        <v>3.1716269334808493</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.018088145375141734</v>
+        <v>0.02052329476805996</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04209146387286122</v>
+        <v>0.05735834306625293</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2090656158297889</v>
+        <v>0.15930855957065415</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7785889881246799</v>
+        <v>0.7449990450447084</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.795533372598434</v>
+        <v>0.7655047577401419</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8992594936950845</v>
+        <v>0.8761041875384129</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2612875438558959</v>
+        <v>0.21386113987796404</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.8907736813012113</v>
+        <v>3.2644788455530422</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.018443679620335454</v>
+        <v>0.019204542933704827</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04604051323360608</v>
+        <v>0.05717549162237914</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2045456409767883</v>
+        <v>0.16323635754889493</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7688883158188813</v>
+        <v>0.7415001114293944</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.791594763905283</v>
+        <v>0.7678090165030816</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8974324865087413</v>
+        <v>0.8870802673514587</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2566735811392544</v>
+        <v>0.2160346753569183</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.798343931941877</v>
+        <v>3.306799449916075</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.019250748296386445</v>
+        <v>0.01985041556111917</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04722892743954551</v>
+        <v>0.06202183349672859</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2025651283093577</v>
+        <v>0.15378273313811527</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7461807122429533</v>
+        <v>0.7331959726164763</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7691960010311554</v>
+        <v>0.7672870360665558</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8644326647080182</v>
+        <v>0.8857662476629504</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23252318697138813</v>
+        <v>0.215539595869266</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.3326805621551925</v>
+        <v>3.297139201432713</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.021048378343264517</v>
+        <v>0.020576047738577075</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04321852226700725</v>
+        <v>0.06180876704431918</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1657564096142678</v>
+        <v>0.15250034196422024</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7475073725402832</v>
+        <v>0.7056072236309191</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7706788919402158</v>
+        <v>0.7448007581200455</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8659908067579744</v>
+        <v>0.8534601076776274</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23402049643301578</v>
+        <v>0.195629961531045</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.3606975758171314</v>
+        <v>2.9185069384743687</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.020963565486482517</v>
+        <v>0.02274434693779279</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.043230154416018525</v>
+        <v>0.057465236788235244</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.16378254304151257</v>
+        <v>0.11428629492693892</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.706422922858655</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7446415610605233</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8547008302342726</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.1954982247360682</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.916064039837795</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.0227089513039262</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.057710537780085225</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.11428629492693892</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>334.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6415987742646722</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7000765644504344</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6959800743262152</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5618044920200002</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.6736526946107784</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.053277658057308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6182259426439517</v>
+        <v>0.26752348059836456</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6669727298382427</v>
+        <v>0.3958633022828413</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6524388282395658</v>
+        <v>0.3243672469493531</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.525471471262517</v>
+        <v>0.2495341916081978</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.188622754491018</v>
+        <v>0.9760479041916168</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1587463019978064</v>
+        <v>0.15312935152640625</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5927425646195716</v>
+        <v>0.559149581571434</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6533239461976866</v>
+        <v>0.6301765325829356</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6377872694054423</v>
+        <v>0.609916191361148</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5137236938277624</v>
+        <v>0.45777365908788076</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.7784431137724552</v>
+        <v>3.6736526946107784</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9642323969732908</v>
+        <v>1.053277658057308</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5844241773031447</v>
+        <v>0.5450262553653492</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6369948241377089</v>
+        <v>0.6140275471335834</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6119180354492599</v>
+        <v>0.5938117480114701</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.48391305139422647</v>
+        <v>0.43016526233445523</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.1437125748503</v>
+        <v>4.188622754491018</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.1843597837308035</v>
+        <v>1.1587463019978064</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6031685220261337</v>
+        <v>0.6392885799308364</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5303664215960505</v>
+        <v>0.6030782730733697</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5561446071655419</v>
+        <v>0.635400864402967</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.46024318474062487</v>
+        <v>0.6080306523730706</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.8053892215568862</v>
+        <v>0.20059880239520958</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.6552313097849756</v>
+        <v>0.40104922540725924</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6088812177265924</v>
+        <v>0.6611110759488547</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5355357650063105</v>
+        <v>0.6211076133069142</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.561613363419996</v>
+        <v>0.6568228259692342</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4539124554226108</v>
+        <v>0.5170725253318265</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.8712574850299402</v>
+        <v>0.8053892215568862</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.7870606596784095</v>
+        <v>1.6552313097849756</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4357684320872127</v>
+        <v>0.666685354042219</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.42452630443418415</v>
+        <v>0.6257174249477687</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.36131872673944926</v>
+        <v>0.662117902887109</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3046499447644155</v>
+        <v>0.5103010779541906</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.8233532934131738</v>
+        <v>0.8712574850299402</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2905033637561731</v>
+        <v>1.7870606596784095</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4090853998818321</v>
+        <v>0.22768926191256067</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.39166932085211986</v>
+        <v>0.3099646091075134</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.32685203236803534</v>
+        <v>0.2301984755073298</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.24091017084102073</v>
+        <v>0.19845186982938137</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.9580838323353293</v>
+        <v>0.937125748502994</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.5933544173401413</v>
+        <v>0.24310084363462106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4208338806051197</v>
+        <v>0.4595263484369455</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.3982837635352445</v>
+        <v>0.46892336438535404</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.2916268069139352</v>
+        <v>0.4248657755338497</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.2538685279464776</v>
+        <v>0.3175827127271212</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.6946107784431137</v>
+        <v>2.8233532934131738</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5947081213174368</v>
+        <v>1.2905033637561731</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4192703118400664</v>
+        <v>0.4255168235795743</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4365289509495206</v>
+        <v>0.4215222343872985</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3346910730042054</v>
+        <v>0.3646961737704764</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.30125722842965186</v>
+        <v>0.24171410257826279</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.694610778443114</v>
+        <v>2.9580838323353293</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.1558056865185347</v>
+        <v>1.5933544173401413</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6321920577251376</v>
+        <v>0.44760138804207233</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6367118323038348</v>
+        <v>0.40010825070407513</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6271085921220257</v>
+        <v>0.296068837897252</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.529378195367475</v>
+        <v>0.26658319699305005</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.5419161676646707</v>
+        <v>1.6946107784431137</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2978535914743954</v>
+        <v>1.5947081213174368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>334.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6218670930640932</v>
+        <v>0.4208253099155146</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6243006178025611</v>
+        <v>0.40498584491550566</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6128346999475024</v>
+        <v>0.30579235067826366</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5190593856313312</v>
+        <v>0.2907685566063351</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.694610778443114</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.1558056865185347</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>334.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6368263641562119</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6011384216669696</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5939986042023291</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.523597331809067</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.5419161676646707</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2978535914743954</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>334.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.63168134384505</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6024363114899923</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5938931296297881</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.51952611601937</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.338323353293413</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2766903781086032</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.023952095808383235</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.041916167664670656</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.005988023952095809</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.26047904191616766</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.16766467065868262</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.023952095808383235</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0029940119760479044</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.04491017964071856</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.20059880239520958</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.1437125748502994</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.5838323353293413</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.011976047904191617</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.03293413173652695</v>
+        <v>0.9760479041916168</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.014970059880239521</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.23652694610778444</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5119760479041916</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.19161676646706588</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.011976047904191617</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.017964071856287425</v>
+        <v>0.041916167664670656</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.04790419161676647</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.26646706586826346</v>
+        <v>0.26047904191616766</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.04790419161676647</v>
+        <v>0.5</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.6077844311377245</v>
+        <v>0.16766467065868262</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7994011976047904</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.005988023952095809</v>
+        <v>0.0029940119760479044</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.04491017964071856</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.03592814371257485</v>
+        <v>0.20059880239520958</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.10179640718562874</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.05688622754491018</v>
+        <v>0.5838323353293413</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7994011976047904</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0029940119760479044</v>
+        <v>0.20059880239520958</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.0029940119760479044</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.029940119760479042</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.05089820359281437</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.11377245508982035</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.06287425149700598</v>
+        <v>0.7994011976047904</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16167664670658682</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.02694610778443114</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4311377245508982</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.27245508982035926</v>
+        <v>0.10179640718562874</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.04491017964071856</v>
+        <v>0.05688622754491018</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.06287425149700598</v>
+        <v>0.7994011976047904</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.15568862275449102</v>
+        <v>0.0029940119760479044</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.2245508982035928</v>
+        <v>0.0029940119760479044</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.09281437125748503</v>
+        <v>0.029940119760479042</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.24550898203592814</v>
+        <v>0.05089820359281437</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.218562874251497</v>
+        <v>0.11377245508982035</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.39820359281437123</v>
+        <v>0.06287425149700598</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.09880239520958084</v>
+        <v>0.937125748502994</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.08682634730538923</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.24251497005988024</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.17365269461077845</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.10479041916167664</v>
+        <v>0.06287425149700598</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.04790419161676647</v>
+        <v>0.16167664670658682</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.09281437125748503</v>
+        <v>0.02694610778443114</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.5568862275449101</v>
+        <v>0.4311377245508982</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.19760479041916168</v>
+        <v>0.27245508982035926</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.04491017964071856</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.12574850299401197</v>
+        <v>0.06287425149700598</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.05089820359281437</v>
+        <v>0.15568862275449102</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.26646706586826346</v>
+        <v>0.2245508982035928</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2694610778443114</v>
+        <v>0.09281437125748503</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.2874251497005988</v>
+        <v>0.24550898203592814</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.218562874251497</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.1437125748502994</v>
+        <v>0.39820359281437123</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.05089820359281437</v>
+        <v>0.09880239520958084</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3473053892215569</v>
+        <v>0.08682634730538923</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.23952095808383234</v>
+        <v>0.24251497005988024</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.218562874251497</v>
+        <v>0.17365269461077845</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.10479041916167664</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.04790419161676647</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.09281437125748503</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5568862275449101</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.19760479041916168</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.12574850299401197</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.05089820359281437</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.26646706586826346</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2694610778443114</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.2874251497005988</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.1437125748502994</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.05089820359281437</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3473053892215569</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.23952095808383234</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.218562874251497</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8733690658631601</v>
+        <v>0.873903332538948</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.876518427946437</v>
+        <v>0.9921985449732765</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8823349332000139</v>
+        <v>0.9887683948018127</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6395868564490583</v>
+        <v>0.9769552008481946</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>7.0983743838815645</v>
+        <v>127.18121703894204</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.011471954046287943</v>
+        <v>0.001287013036395755</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.946107784431138</v>
+        <v>0.625748502994012</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9310379433789435</v>
+        <v>1.2736867615663374</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.660445685818011</v>
+        <v>0.9747125856570193</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8223322313994781</v>
+        <v>0.9901481903152944</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8259238974419318</v>
+        <v>0.9916147270124716</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7733906243611928</v>
+        <v>0.9833689102525554</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6126340143995704</v>
+        <v>0.9833689102525554</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.744613909117253</v>
+        <v>118.25670177790352</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.01659204460782751</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.008915389261115646</v>
-      </c>
+        <v>9.931860294852932E-4</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6235143921415011</v>
+        <v>0.9833689102525552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8414114246718318</v>
+        <v>0.5880790190735696</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8480889915882633</v>
+        <v>0.9871943823487777</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8006158871458617</v>
+        <v>0.9747125856570195</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6504637754580022</v>
+        <v>0.9747125856570193</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.5828014075821235</v>
+        <v>77.09072761941616</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.015195208400035526</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.007146879556901537</v>
-      </c>
+        <v>0.004734749360378521</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.697376979494521</v>
+        <v>0.9747125856570193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8410410843245104</v>
+        <v>0.6161626560288249</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8432107639138929</v>
+        <v>0.9862043224732719</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7961968695136569</v>
+        <v>0.9727841066350091</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6419188360475396</v>
+        <v>0.9727841066350091</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.377988852824123</v>
+        <v>71.48647252464247</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.015247960284168678</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.009907210405501878</v>
-      </c>
+        <v>0.004975427058972952</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6235143921415011</v>
+        <v>0.9727841066350091</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8475091593730919</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8497095542139317</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8182982578388754</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6533307998911212</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.653782911945412</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.014537795288802785</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.01539413003479794</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.697376979494521</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>334.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9822149280713192</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9901341506285037</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.980961406710866</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9778534653100482</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.20059880239520958</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.40104922540725924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>334.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.87237054433242</v>
+        <v>0.995196419938753</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8778834843278405</v>
+        <v>0.9930420156732314</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8437319449818845</v>
+        <v>0.9889027263109342</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7697884110799571</v>
+        <v>0.9851651220665207</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.6736526946107784</v>
+        <v>0.8053892215568862</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.053277658057308</v>
+        <v>1.6552313097849756</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>334.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8542601237426695</v>
+        <v>0.9959726130753263</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8446691447147188</v>
+        <v>0.993689837583755</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7914427446225885</v>
+        <v>0.9902371724779202</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7224138570706973</v>
+        <v>0.9859022309978818</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.188622754491018</v>
+        <v>0.8712574850299402</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1587463019978064</v>
+        <v>1.7870606596784095</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>334.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8388191763095663</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8521715584654763</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8009164642190382</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7290675825361131</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.7784431137724552</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9642323969732908</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>334.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8499241523729406</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8421519117072556</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7734723130559175</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7104365268892151</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.1437125748503</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.1843597837308035</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7994011976047904</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.20059880239520958</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7994011976047904</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.005988023952095809</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.03592814371257485</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.10179640718562874</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.05688622754491018</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.023952095808383235</v>
+        <v>0.7994011976047904</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.041916167664670656</v>
+        <v>0.0029940119760479044</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.005988023952095809</v>
+        <v>0.0029940119760479044</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.26047904191616766</v>
+        <v>0.029940119760479042</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5</v>
+        <v>0.05089820359281437</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.16766467065868262</v>
+        <v>0.11377245508982035</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.023952095808383235</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0029940119760479044</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04491017964071856</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.20059880239520958</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1437125748502994</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5838323353293413</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.011976047904191617</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.03293413173652695</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.014970059880239521</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.23652694610778444</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5119760479041916</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.19161676646706588</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.011976047904191617</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.017964071856287425</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.04790419161676647</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.26646706586826346</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.04790419161676647</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.6077844311377245</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7778580753754856</v>
+        <v>0.6660589247775781</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7883679557345595</v>
+        <v>0.7968319376837648</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6506661485769081</v>
+        <v>0.7333332969111033</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6506661485769079</v>
+        <v>0.5666013435386987</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.7251823487833713</v>
+        <v>3.922033456437062</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.023411764244507905</v>
+        <v>0.01725714779422448</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.8907185628742513</v>
+        <v>2.2395209580838324</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3114891102563724</v>
+        <v>0.9230566994486005</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.650666148576908</v>
+        <v>0.5675376535389589</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.650666148576908</v>
+        <v>0.7778580753754856</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.650666148576908</v>
+        <v>0.7883679557345595</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.42336643690390685</v>
+        <v>0.6506661485769081</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.650666148576908</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.650666148576908</v>
-      </c>
+        <v>0.6506661485769079</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.7251823487833713</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.023411764244507905</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.650666148576908</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.42336643690390685</v>
+        <v>0.2511583145955203</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.650666148576908</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.42336643690390685</v>
-      </c>
+        <v>0.6501081995481817</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4816002285002291</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4816002285002292</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.8580263918979838</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.021641161560971282</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.650666148576908</v>
+        <v>0.4816002285002291</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.3423045011408423</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.724113583182713</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5675376535389591</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5675376535389589</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.6246800822465883</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.022036380979517142</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5675376535389589</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>334.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8872529430877057</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.908478439088377</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7328139550666372</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6506661485769081</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.8233532934131738</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2905033637561731</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>334.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9275872943715482</v>
+        <v>0.6293834918623886</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.908478439088377</v>
+        <v>0.8100176716681665</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7328139550666372</v>
+        <v>0.643072544942261</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.650666148576908</v>
+        <v>0.5717809971483467</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.937125748502994</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.24310084363462106</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>334.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8902356809526606</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8768488908551675</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7965889875025899</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6815252116277065</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.8233532934131738</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2905033637561731</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>334.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9208963704061707</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8428781007247558</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7266823180281705</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6633017093685195</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.9580838323353293</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.5933544173401413</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.06287425149700598</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.937125748502994</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.06287425149700598</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.16167664670658682</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.02694610778443114</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4311377245508982</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.27245508982035926</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.04491017964071856</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.06287425149700598</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.15568862275449102</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.2245508982035928</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.09281437125748503</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.24550898203592814</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.218562874251497</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9078988688815022</v>
+        <v>0.7069812364150263</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9079658674662574</v>
+        <v>0.8310899358463459</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8314445862233178</v>
+        <v>0.7823859114699891</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.831444586223318</v>
+        <v>0.6212269633720431</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.865534041225082</v>
+        <v>4.920310343913674</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.010074689222060942</v>
+        <v>0.011820523463257935</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.440119760479042</v>
+        <v>2.946107784431138</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2318378993353718</v>
+        <v>0.7213021307259101</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8314445862233178</v>
+        <v>0.5671137754713091</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.831444586223318</v>
+        <v>0.8545063548465681</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.831444586223318</v>
+        <v>0.8567323218486831</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6913000999600643</v>
+        <v>0.7493715935659389</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.831444586223318</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.831444586223318</v>
-      </c>
+        <v>0.7493715935659389</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.9799414138883265</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.015758795906601557</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.831444586223318</v>
+        <v>0.7493715935659389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6913000999600643</v>
+        <v>0.25680179430846284</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.831444586223318</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6913000999600643</v>
-      </c>
+        <v>0.723768477245055</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5671137754713094</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5671137754713091</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.620151639561919</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.017593169911777975</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.831444586223318</v>
+        <v>0.5671137754713091</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.26961662855612567</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7073385536914094</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5471955210788814</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5471955210788813</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.4169174403162472</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.01928565092748303</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5471955210788814</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>334.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.957654775806607</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9569337976640071</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8725665264561154</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8314445862233177</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.5419161676646707</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2978535914743954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>334.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9562068685017415</v>
+        <v>0.6407944279011696</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9569337976640072</v>
+        <v>0.8151661320291776</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8725665264561155</v>
+        <v>0.6407418336551539</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8314445862233181</v>
+        <v>0.5961409949290903</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.338323353293413</v>
+        <v>0.9760479041916168</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2766903781086032</v>
+        <v>0.15312935152640625</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>334.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9267503083656006</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8854351323361297</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8195171570508449</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7605078562475698</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.6736526946107784</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.053277658057308</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>334.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9403754391220873</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8931145605145617</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8339496044778361</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7656741655240703</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.188622754491018</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1587463019978064</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.12574850299401197</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.05089820359281437</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.26646706586826346</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2694610778443114</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.2874251497005988</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.023952095808383235</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9760479041916168</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.023952095808383235</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.041916167664670656</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.005988023952095809</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.26047904191616766</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.16766467065868262</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.023952095808383235</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0029940119760479044</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.04491017964071856</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.20059880239520958</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.1437125748502994</v>
       </c>
-      <c r="C24" t="n" s="455">
-        <v>0.05089820359281437</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3473053892215569</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.23952095808383234</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.218562874251497</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.5838323353293413</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9901481903152944</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9916147270124716</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9833689102525554</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9833689102525554</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>118.25670177790352</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>9.931860294852932E-4</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.8383233532934131</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.7139854519110995</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9833689102525552</v>
+      <c r="A6" t="n" s="491">
+        <v>0.524951792234789</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5449098955322076</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3744853283374584</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3744853283374583</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.1973670492560053</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.049019517075282557</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.194610778443114</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1466759629326675</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.3744853283374583</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9833689102525554</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9833689102525554</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9670144136512983</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9833689102525554</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9833689102525554</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9833689102525554</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.37448532833745835</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.37448532833745835</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.1402392611400144</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.37448532833745835</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.37448532833745835</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.37448532833745835</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9670144136512983</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9833689102525554</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9670144136512983</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9833689102525554</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.1402392611400144</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.37448532833745835</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.1402392611400144</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.37448532833745835</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>334.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9955076338142537</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9958335479015945</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9875179299394653</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9833689102525552</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.8053892215568862</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.6552313097849756</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8840947481545351</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8290010037199769</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5073088750837467</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.37448532833745835</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.6946107784431137</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5947081213174368</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>334.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9961472150157686</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9958335479015946</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9875179299394653</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9833689102525554</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.8712574850299402</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.7870606596784095</v>
+      <c r="C18" t="n" s="545">
+        <v>0.764383547575699</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8290010037199769</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5073088750837461</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.37448532833745823</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.694610778443114</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.1558056865185347</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7994011976047904</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.005988023952095809</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.39820359281437123</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.09880239520958084</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.08682634730538923</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.24251497005988024</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.17365269461077845</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.03592814371257485</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.10179640718562874</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.05688622754491018</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7994011976047904</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0029940119760479044</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0029940119760479044</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.029940119760479042</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.05089820359281437</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.11377245508982035</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.10479041916167664</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.04790419161676647</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.09281437125748503</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.5568862275449101</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.19760479041916168</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.524951792234789</v>
+        <v>0.9078988688815022</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5449098955322076</v>
+        <v>0.9079658674662574</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3744853283374584</v>
+        <v>0.8314445862233178</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3744853283374583</v>
+        <v>0.831444586223318</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.1973670492560053</v>
+        <v>9.865534041225082</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.049019517075282557</v>
+        <v>0.010074689222060942</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.194610778443114</v>
+        <v>2.440119760479042</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1466759629326675</v>
+        <v>1.2318378993353718</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.3744853283374583</v>
+        <v>0.8314445862233178</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.37448532833745835</v>
+        <v>0.831444586223318</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.37448532833745835</v>
+        <v>0.831444586223318</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.1402392611400144</v>
+        <v>0.6913000999600643</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.37448532833745835</v>
+        <v>0.831444586223318</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.37448532833745835</v>
+        <v>0.831444586223318</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.37448532833745835</v>
+        <v>0.831444586223318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.1402392611400144</v>
+        <v>0.6913000999600643</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.37448532833745835</v>
+        <v>0.831444586223318</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.1402392611400144</v>
+        <v>0.6913000999600643</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.37448532833745835</v>
+        <v>0.831444586223318</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>334.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8840947481545351</v>
+        <v>0.957654775806607</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8290010037199769</v>
+        <v>0.9569337976640071</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5073088750837467</v>
+        <v>0.8725665264561154</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.37448532833745835</v>
+        <v>0.8314445862233177</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.6946107784431137</v>
+        <v>2.5419161676646707</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5947081213174368</v>
+        <v>1.2978535914743954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>334.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.764383547575699</v>
+        <v>0.9562068685017415</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8290010037199769</v>
+        <v>0.9569337976640072</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5073088750837461</v>
+        <v>0.8725665264561155</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.37448532833745823</v>
+        <v>0.8314445862233181</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.694610778443114</v>
+        <v>2.338323353293413</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.1558056865185347</v>
+        <v>1.2766903781086032</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.39820359281437123</v>
+        <v>0.12574850299401197</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.09880239520958084</v>
+        <v>0.05089820359281437</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.08682634730538923</v>
+        <v>0.26646706586826346</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.24251497005988024</v>
+        <v>0.2694610778443114</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.17365269461077845</v>
+        <v>0.2874251497005988</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.10479041916167664</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.04790419161676647</v>
+        <v>0.05089820359281437</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.09281437125748503</v>
+        <v>0.3473053892215569</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5568862275449101</v>
+        <v>0.23952095808383234</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.19760479041916168</v>
+        <v>0.218562874251497</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7893063815010944</v>
+        <v>0.7605026619059033</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8066723230530413</v>
+        <v>0.7953976810538128</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9002610263520552</v>
+        <v>0.894176349069201</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2944114272978518</v>
+        <v>0.2799295554232545</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.172565127725394</v>
+        <v>3.887530137246446</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.017654731090297728</v>
+        <v>0.018609687757733695</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.673053892215569</v>
+        <v>1.998502994011976</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7864037677782298</v>
+        <v>0.706786602725894</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.22990416784919177</v>
+        <v>0.21479035484483425</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7609919035595354</v>
+        <v>0.7441312193165298</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7725368998324351</v>
+        <v>0.7650305246239548</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8691806734256083</v>
+        <v>0.8682774815639313</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.27397793537293774</v>
+        <v>0.26565812414537343</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.3963174653969426</v>
+        <v>3.255871952727476</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.019956681909190102</v>
+        <v>0.020459525357801083</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.043178605977420764</v>
+        <v>0.04676478378327187</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.2289016592130136</v>
+        <v>0.21557840445860071</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7616545439791449</v>
+        <v>0.7145023483095798</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7760386360853169</v>
+        <v>0.7634128947392955</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8750195009622306</v>
+        <v>0.8664945017562208</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2779815748725155</v>
+        <v>0.26391043943231696</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.465055858388792</v>
+        <v>3.226773047914262</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.019923041919107272</v>
+        <v>0.022265207949514604</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04534032540996258</v>
+        <v>0.04648894517079962</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.2289016592130136</v>
+        <v>0.21557840445860071</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7681471075673767</v>
+        <v>0.7174368762516429</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7802009134405189</v>
+        <v>0.7628764753206801</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8754966119256565</v>
+        <v>0.8657787427754583</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2828462080720764</v>
+        <v>0.2633343401247713</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.549609444029169</v>
+        <v>3.2172112672176922</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.01947617835957712</v>
+        <v>0.022055052770496544</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.04374885633966605</v>
+        <v>0.04657645061403603</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2289016592130136</v>
+        <v>0.21307143239196985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7690153045819649</v>
+        <v>0.7660060963105508</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7832532550163837</v>
+        <v>0.796337925852449</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8814819781315727</v>
+        <v>0.8972083212856532</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2864889229061763</v>
+        <v>0.30287109028243747</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.6136794353040402</v>
+        <v>3.910094352056486</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.019317698660516792</v>
+        <v>0.019005082611754043</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04448827232873168</v>
+        <v>0.06573853674833338</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.23002675945758969</v>
+        <v>0.22556372708574032</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7625329082845419</v>
+        <v>0.7371385046203887</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7836613367514134</v>
+        <v>0.7692548856970386</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8688240548725973</v>
+        <v>0.8744370213087613</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2869808716119188</v>
+        <v>0.27029706620296756</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.622382263918018</v>
+        <v>3.3337862343079996</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.019943565479856873</v>
+        <v>0.020185519722053</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.048493184425237465</v>
+        <v>0.06897694373716233</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.2094210132706807</v>
+        <v>0.21192798533731155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7639103187085117</v>
+        <v>0.7378022519216655</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7854767906107795</v>
+        <v>0.7695377511046645</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8706715193284905</v>
+        <v>0.8729535782974734</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.28918376155484316</v>
+        <v>0.27061163087505963</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.6615002770429768</v>
+        <v>3.3391054491278123</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.019880874618774004</v>
+        <v>0.020088741883154734</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04828755408542485</v>
+        <v>0.0686141924682785</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21228338277820338</v>
+        <v>0.21307143239196985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7665285397554542</v>
+        <v>0.7662975842251112</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7948107857548128</v>
+        <v>0.7983541957105651</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.853620268489804</v>
+        <v>0.903432108186384</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3008921670759867</v>
+        <v>0.3055121882888007</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.873550511310347</v>
+        <v>3.959190713259953</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.019624592907490697</v>
+        <v>0.017784804950612708</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.039597348871011635</v>
+        <v>0.07308517012979898</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.24012216056643876</v>
+        <v>0.21979737883350622</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7697047986925303</v>
+        <v>0.7579469827024418</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7943212971726183</v>
+        <v>0.7994406220787837</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8533834637803752</v>
+        <v>0.9029297444132256</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.30026173835092124</v>
+        <v>0.30694885337946093</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.8619520944726213</v>
+        <v>3.986054555837421</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.019352892013688536</v>
+        <v>0.018681207924800058</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03984351391974428</v>
+        <v>0.07191651794845635</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.24022635972156015</v>
+        <v>0.22556372708574032</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7987994736517117</v>
+        <v>0.7254503917041284</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8121754682175429</v>
+        <v>0.7732048347734075</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9099217550119815</v>
+        <v>0.8619353668600519</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.32453315904838553</v>
+        <v>0.27473545375310354</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.324118157037252</v>
+        <v>3.409265069653903</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.017035322350343114</v>
+        <v>0.021064897689519264</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.05032569897586655</v>
+        <v>0.0683781704691066</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.24022635972156015</v>
+        <v>0.203555384643073</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7885041872367159</v>
+        <v>0.7263170300277931</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8096746385930853</v>
+        <v>0.7738030676897486</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9086101546514899</v>
+        <v>0.8634393331602856</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.32096793411275626</v>
+        <v>0.2754163677482531</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.254160520741136</v>
+        <v>3.420926445759225</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.017966570077716584</v>
+        <v>0.021078024583159577</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05126844060215616</v>
+        <v>0.0684002060232277</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.24022635972156015</v>
+        <v>0.2058153720695733</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>334.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6655062801371324</v>
+        <v>0.7108766246973239</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7258909854590705</v>
+        <v>0.6798464188084978</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7154741114233556</v>
+        <v>0.7113571860059724</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.580105262699701</v>
+        <v>0.6810402462971502</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.6736526946107784</v>
+        <v>0.20059880239520958</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.053277658057308</v>
+        <v>0.40104922540725924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>334.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6521723130789177</v>
+        <v>0.7266959973069815</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.7020332777807783</v>
+        <v>0.6904519730943225</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6811365784398544</v>
+        <v>0.7251406140378609</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5542777273546201</v>
+        <v>0.582662863825975</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.188622754491018</v>
+        <v>0.8053892215568862</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1587463019978064</v>
+        <v>1.6552313097849756</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>334.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6091183817117198</v>
+        <v>0.7304655535768859</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6730449043646701</v>
+        <v>0.6939479426101945</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6507292819874103</v>
+        <v>0.7292407203106754</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5228937746426081</v>
+        <v>0.5731062179391171</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.7784431137724552</v>
+        <v>0.8712574850299402</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9642323969732908</v>
+        <v>1.7870606596784095</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>334.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5945274786214351</v>
+        <v>0.3021051174117855</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6513379485619563</v>
+        <v>0.45402529125914076</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6178231939051305</v>
+        <v>0.3690119218900785</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.48332371272403485</v>
+        <v>0.28222621347790544</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.1437125748503</v>
+        <v>0.9760479041916168</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.1843597837308035</v>
+        <v>0.15312935152640625</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>334.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6448815356349131</v>
+        <v>0.5749785858581035</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6484064237791789</v>
+        <v>0.6516957166520614</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6319253768219294</v>
+        <v>0.6189029129780175</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.53172573256515</v>
+        <v>0.46178581259421586</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.5419161676646707</v>
+        <v>3.6736526946107784</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2978535914743954</v>
+        <v>1.053277658057308</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>334.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6348364872262277</v>
+        <v>0.5738226040180691</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6352793916597083</v>
+        <v>0.6497868296077612</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6168714528492996</v>
+        <v>0.619373343314001</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5217058066690596</v>
+        <v>0.4475516957301086</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.338323353293413</v>
+        <v>4.188622754491018</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2766903781086032</v>
+        <v>1.1587463019978064</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>334.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6518452405089854</v>
+        <v>0.48956147064993083</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.565508944961946</v>
+        <v>0.43799819662850664</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5904225367425644</v>
+        <v>0.3160354658039357</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5030137537319948</v>
+        <v>0.28970633922650607</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.8053892215568862</v>
+        <v>1.6946107784431137</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.6552313097849756</v>
+        <v>1.5947081213174368</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>334.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6558827958229443</v>
+        <v>0.43284619893528414</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5692656728681913</v>
+        <v>0.4292800168013803</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5943852179879195</v>
+        <v>0.3099225129084271</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.493781960652023</v>
+        <v>0.2862518648270356</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.8712574850299402</v>
+        <v>2.694610778443114</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.7870606596784095</v>
+        <v>1.1558056865185347</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>334.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.45389583080717694</v>
+        <v>0.6539945164677707</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.42463215628958195</v>
+        <v>0.6247620484950781</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.304230905797063</v>
+        <v>0.6081922434560721</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.27124782451822693</v>
+        <v>0.5280238658471335</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.6946107784431137</v>
+        <v>2.5419161676646707</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5947081213174368</v>
+        <v>1.2978535914743954</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>334.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.4270325068084883</v>
+        <v>0.6485224119723784</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.4458773494021418</v>
+        <v>0.6206300272640252</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.32909104129593814</v>
+        <v>0.6025769418575349</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.2958536654625996</v>
+        <v>0.5236600513547401</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.694610778443114</v>
+        <v>2.338323353293413</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.1558056865185347</v>
+        <v>1.2766903781086032</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.023952095808383235</v>
+        <v>0.7994011976047904</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.041916167664670656</v>
+        <v>0.20059880239520958</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.005988023952095809</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.26047904191616766</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.16766467065868262</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.023952095808383235</v>
+        <v>0.7994011976047904</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0029940119760479044</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.04491017964071856</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.20059880239520958</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.1437125748502994</v>
+        <v>0.10179640718562874</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.5838323353293413</v>
+        <v>0.05688622754491018</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.011976047904191617</v>
+        <v>0.7994011976047904</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.03293413173652695</v>
+        <v>0.0029940119760479044</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.014970059880239521</v>
+        <v>0.0029940119760479044</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.23652694610778444</v>
+        <v>0.029940119760479042</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.5119760479041916</v>
+        <v>0.05089820359281437</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.19161676646706588</v>
+        <v>0.11377245508982035</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.011976047904191617</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.017964071856287425</v>
+        <v>0.9760479041916168</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.04790419161676647</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.26646706586826346</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.04790419161676647</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.6077844311377245</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.12574850299401197</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.05089820359281437</v>
+        <v>0.041916167664670656</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.26646706586826346</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2694610778443114</v>
+        <v>0.26047904191616766</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.2874251497005988</v>
+        <v>0.5</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.16766467065868262</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
+        <v>0.023952095808383235</v>
+      </c>
+      <c r="C44" t="n" s="798">
+        <v>0.0029940119760479044</v>
+      </c>
+      <c r="D44" t="n" s="799">
+        <v>0.04491017964071856</v>
+      </c>
+      <c r="E44" t="n" s="800">
+        <v>0.20059880239520958</v>
+      </c>
+      <c r="F44" t="n" s="801">
         <v>0.1437125748502994</v>
       </c>
-      <c r="C44" t="n" s="798">
-        <v>0.05089820359281437</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.3473053892215569</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.23952095808383234</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.218562874251497</v>
-      </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.5838323353293413</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7994011976047904</v>
+        <v>0.39820359281437123</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.005988023952095809</v>
+        <v>0.09880239520958084</v>
       </c>
       <c r="D45" t="n" s="799">
+        <v>0.08682634730538923</v>
+      </c>
+      <c r="E45" t="n" s="800">
+        <v>0.24251497005988024</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.17365269461077845</v>
+      </c>
+      <c r="G45" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.03592814371257485</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.10179640718562874</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.05688622754491018</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7994011976047904</v>
+        <v>0.10479041916167664</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0029940119760479044</v>
+        <v>0.04790419161676647</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.0029940119760479044</v>
+        <v>0.09281437125748503</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.029940119760479042</v>
+        <v>0.5568862275449101</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.05089820359281437</v>
+        <v>0.19760479041916168</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.11377245508982035</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.39820359281437123</v>
+        <v>0.12574850299401197</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.09880239520958084</v>
+        <v>0.05089820359281437</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.08682634730538923</v>
+        <v>0.26646706586826346</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.24251497005988024</v>
+        <v>0.2694610778443114</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.17365269461077845</v>
+        <v>0.2874251497005988</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.10479041916167664</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.04790419161676647</v>
+        <v>0.05089820359281437</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.09281437125748503</v>
+        <v>0.3473053892215569</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5568862275449101</v>
+        <v>0.23952095808383234</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.19760479041916168</v>
+        <v>0.218562874251497</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
